--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -623,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S3">
         <v>16</v>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
         <v>6</v>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <v>8</v>
